--- a/domain.xlsx
+++ b/domain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="已注册信息列表" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="无注册信息列表" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="已注册信息列表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="无注册信息列表" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,7 +650,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>休品易站</t>
+          <t>中国天津网</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>昆仑冈</t>
+          <t>休品易站</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>娄东堂</t>
+          <t>昆仑冈</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -692,7 +692,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>极简无痛一站式</t>
+          <t>娄东堂</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>惺惺之恋</t>
+          <t>极简无痛一站式</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -716,6 +716,20 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>惺惺之恋</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>无注册信息</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/domain.xlsx
+++ b/domain.xlsx
@@ -425,29 +425,29 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>域名</t>
+          <t>农业</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>域名状态</t>
+          <t>已注册</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>注册时间</t>
+          <t>2018-12-12T03:03:59Z</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>到期时间</t>
+          <t>2029-12-12T03:03:59Z</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>农业</t>
+          <t>中国天津网</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -457,12 +457,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2018-12-12T03:03:59Z</t>
+          <t>2022-02-23T07:21:10Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2029-12-12T03:03:59Z</t>
+          <t>2028-02-23T07:21:10Z</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,29 +488,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>域名</t>
+          <t>悠倍儿</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>域名状态</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>注册时间</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>到期时间</t>
-        </is>
-      </c>
+          <t>无注册信息</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>悠倍儿</t>
+          <t>炖香居</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -524,7 +516,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>炖香居</t>
+          <t>实府</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,7 +530,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>实府</t>
+          <t>尖之味</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -552,7 +544,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>尖之味</t>
+          <t>小梅来野</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -566,7 +558,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>小梅来野</t>
+          <t>山冲水水</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -580,7 +572,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>山冲水水</t>
+          <t>奇迹星空</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -594,7 +586,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>奇迹星空</t>
+          <t>爱夫堂</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -608,7 +600,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>爱夫堂</t>
+          <t>旺东农牧</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -622,7 +614,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>旺东农牧</t>
+          <t>荣盛园</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -636,7 +628,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>荣盛园</t>
+          <t>休品易站</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -650,7 +642,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>中国天津网</t>
+          <t>昆仑冈</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -664,7 +656,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>休品易站</t>
+          <t>娄东堂</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -678,7 +670,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>昆仑冈</t>
+          <t>极简无痛一站式</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -692,7 +684,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>娄东堂</t>
+          <t>惺惺之恋</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -702,34 +694,6 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>极简无痛一站式</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>无注册信息</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>惺惺之恋</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>无注册信息</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/domain.xlsx
+++ b/domain.xlsx
@@ -414,14 +414,59 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>农业</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>已注册</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2018-12-12T03:03:59Z</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2029-12-12T03:03:59Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>中国天津网</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>已注册</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2022-02-23T07:21:10Z</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2028-02-23T07:21:10Z</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
